--- a/src_W10/infoTriathletes.xlsx
+++ b/src_W10/infoTriathletes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TFG-TriTruth\src_W10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBD4D59-EFE2-47EF-87A0-EFBB46873444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A2E33-2ED7-434F-A4EF-A54D2342992C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11160" yWindow="3840" windowWidth="21600" windowHeight="11835" xr2:uid="{18295F20-3941-4E83-9665-C0E0E04CA98E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{18295F20-3941-4E83-9665-C0E0E04CA98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
